--- a/data/papers.xlsx
+++ b/data/papers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="categories" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="papers" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="categories" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="papers" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -515,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1364,6 +1364,60 @@
         <v>8</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mem</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2409-07429</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Agent Workflow Memory</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Zora Zhiruo Wang, Jiayuan Mao, Daniel Fried, Graham Neubig</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/abs/2409.07429</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://arxiv.org/pdf/2409.07429.pdf</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2409.07429</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>306d0e79-ce27-8017-ba23-fdc0fa77060e</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
